--- a/biology/Zoologie/Conus_rizali/Conus_rizali.xlsx
+++ b/biology/Zoologie/Conus_rizali/Conus_rizali.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus rizali est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 25 mm et 40 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est endémique aux Philippines.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, il s'agit d'une espèce d'eau profonde récemment décrite. Les données sont insuffisantes pour développer une évaluation. Nous l'avons inscrite dans la catégorie Données insuffisantes[1].
 </t>
         </is>
       </c>
@@ -573,15 +587,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, il s'agit d'une espèce d'eau profonde récemment décrite. Les données sont insuffisantes pour développer une évaluation. Nous l'avons inscrite dans la catégorie Données insuffisantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_rizali</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_rizali</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus rizali a été décrite pour la première fois en 2010 par les malacologistes américains Baldomero M. Olivera et J.S. Biggs dans « The Nautilus »[2],[3].
-Synonymes
-Conus (Turriconus) rizali B. M. Olivera &amp; Biggs, 2010 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus rizali a été décrite pour la première fois en 2010 par les malacologistes américains Baldomero M. Olivera et J.S. Biggs dans « The Nautilus »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_rizali</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_rizali</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Turriconus) rizali B. M. Olivera &amp; Biggs, 2010 · appellation alternative
 Kurodaconus rizali (B. M. Olivera &amp; Biggs, 2010) · non accepté
 Turriconus (Turriconus) rizali (B. M. Olivera &amp; Biggs, 2010) · non accepté
 Turriconus rizali (B. M. Olivera &amp; Biggs, 2010) · non accepté</t>
